--- a/excel/employees.xlsx
+++ b/excel/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS-Services.Uz\Desktop\mebel.akmalovich.uz\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7134296-7C92-4AB5-A2EA-614EA5679934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A907C97-A582-46DD-8D68-2C4526E84F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C06EB67F-69BB-42A5-BBC2-969FBFB13C86}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="32">
   <si>
     <t>Tugma</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Aprel</t>
+  </si>
+  <si>
+    <t>Sana(faqat Yil)</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,9 +322,6 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1512,7 +1512,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>2</v>
@@ -1843,7 +1843,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="12">
         <v>2022</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -1866,7 +1866,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="12">
         <v>2023</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -1890,7 +1890,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="12">
         <v>2024</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1912,7 +1912,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="12">
         <v>2025</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="12">
         <v>2026</v>
       </c>
       <c r="B26" s="10" t="s">
